--- a/netforce_account_report/netforce_account_report/reports/tax_sum.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/tax_sum.xlsx
@@ -5,94 +5,93 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="198" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
-  <si>
-    <t>Tax Summary Report</t>
-  </si>
-  <si>
-    <t>{{company_name}}</t>
-  </si>
-  <si>
-    <t>From {{fmt_date date_from}} to {{fmt_date date_to}}</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>{{#if by_rate}}</t>
-  </si>
-  <si>
-    <t>Taxes by Tax Rate</t>
-  </si>
-  <si>
-    <t>{{#each_group rate_taxes "rate_name" sum="base_total,tax_total"}}</t>
-  </si>
-  <si>
-    <t>{{rate_name}}</t>
-  </si>
-  <si>
-    <t>{{#each group_items}}</t>
-  </si>
-  <si>
-    <t>{{comp_name}}</t>
-  </si>
-  <si>
-    <t>{{comp_rate}}%</t>
-  </si>
-  <si>
-    <t>{{currency base_total}}</t>
-  </si>
-  <si>
-    <t>{{currency tax_total}}</t>
-  </si>
-  <si>
-    <t>{{/each}}</t>
-  </si>
-  <si>
-    <t>Total {{rate_name}}</t>
-  </si>
-  <si>
-    <t>{{currency sum.base_total}}</t>
-  </si>
-  <si>
-    <t>{{currency sum.tax_total}}</t>
-  </si>
-  <si>
-    <t>{{/each_group}}</t>
-  </si>
-  <si>
-    <t>{{/if}}</t>
-  </si>
-  <si>
-    <t>{{#if by_comp}}</t>
-  </si>
-  <si>
-    <t>Taxes by Tax Component</t>
-  </si>
-  <si>
-    <t>{{#each_group comp_taxes "comp_name" sum="base_total,tax_total" context=context}}</t>
-  </si>
-  <si>
-    <t>{{#each group_items context=context}}</t>
-  </si>
-  <si>
-    <t>Total {{comp_name}}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Tax Summary Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{company_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From {{fmt_date date_from}} to {{fmt_date date_to}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{#if by_rate}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxes by Tax Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{#each options.rate_taxes}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{rate_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{#each group_items}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{comp_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{comp_rate}}%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency base_total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency tax_total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{/each}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total {{rate_name}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency sum.base_total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{currency sum.tax_total}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{/if}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{#if by_comp}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxes by Tax Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{#each options.comp_taxes}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total {{comp_name}}</t>
   </si>
 </sst>
 </file>
@@ -100,36 +99,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +140,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -150,44 +149,59 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -199,38 +213,39 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3960784313725"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4" s="2">
+    <row r="4" s="2" customFormat="true" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -244,32 +259,33 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
@@ -283,12 +299,12 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
@@ -299,42 +315,42 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="2" t="s">
+    <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>9</v>
       </c>
@@ -348,14 +364,14 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>17</v>
@@ -364,20 +380,20 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
